--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Pdgfa-Pdgfra.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Pdgfa-Pdgfra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.09419685058725</v>
+        <v>5.444688333333333</v>
       </c>
       <c r="H2">
-        <v>2.09419685058725</v>
+        <v>16.334065</v>
       </c>
       <c r="I2">
-        <v>0.05517562053788742</v>
+        <v>0.1233261750980693</v>
       </c>
       <c r="J2">
-        <v>0.05517562053788742</v>
+        <v>0.1233261750980693</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.228113945793582</v>
+        <v>0.3397146666666667</v>
       </c>
       <c r="N2">
-        <v>0.228113945793582</v>
+        <v>1.019144</v>
       </c>
       <c r="O2">
-        <v>0.001264875371546175</v>
+        <v>0.001876105469878586</v>
       </c>
       <c r="P2">
-        <v>0.001264875371546175</v>
+        <v>0.001876105469878587</v>
       </c>
       <c r="Q2">
-        <v>0.4777155068559501</v>
+        <v>1.849640482262222</v>
       </c>
       <c r="R2">
-        <v>0.4777155068559501</v>
+        <v>16.64676434036</v>
       </c>
       <c r="S2">
-        <v>6.979028352815112E-05</v>
+        <v>0.0002313729116806922</v>
       </c>
       <c r="T2">
-        <v>6.979028352815112E-05</v>
+        <v>0.0002313729116806923</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,557 +590,1797 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.09419685058725</v>
+        <v>5.444688333333333</v>
       </c>
       <c r="H3">
-        <v>2.09419685058725</v>
+        <v>16.334065</v>
       </c>
       <c r="I3">
-        <v>0.05517562053788742</v>
+        <v>0.1233261750980693</v>
       </c>
       <c r="J3">
-        <v>0.05517562053788742</v>
+        <v>0.1233261750980693</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>180.116883612928</v>
+        <v>180.357493</v>
       </c>
       <c r="N3">
-        <v>180.116883612928</v>
+        <v>541.0724789999999</v>
       </c>
       <c r="O3">
-        <v>0.9987351246284538</v>
+        <v>0.9960408317692755</v>
       </c>
       <c r="P3">
-        <v>0.9987351246284538</v>
+        <v>0.9960408317692757</v>
       </c>
       <c r="Q3">
-        <v>377.2002103997841</v>
+        <v>981.9903379663481</v>
       </c>
       <c r="R3">
-        <v>377.2002103997841</v>
+        <v>8837.913041697133</v>
       </c>
       <c r="S3">
-        <v>0.05510583025435926</v>
+        <v>0.1228379060236043</v>
       </c>
       <c r="T3">
-        <v>0.05510583025435926</v>
+        <v>0.1228379060236043</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.3598668860931</v>
+        <v>5.444688333333333</v>
       </c>
       <c r="H4">
-        <v>4.3598668860931</v>
+        <v>16.334065</v>
       </c>
       <c r="I4">
-        <v>0.114869030022329</v>
+        <v>0.1233261750980693</v>
       </c>
       <c r="J4">
-        <v>0.114869030022329</v>
+        <v>0.1233261750980693</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.228113945793582</v>
+        <v>0.07065566666666667</v>
       </c>
       <c r="N4">
-        <v>0.228113945793582</v>
+        <v>0.211967</v>
       </c>
       <c r="O4">
-        <v>0.001264875371546175</v>
+        <v>0.000390202413136666</v>
       </c>
       <c r="P4">
-        <v>0.001264875371546175</v>
+        <v>0.0003902024131366661</v>
       </c>
       <c r="Q4">
-        <v>0.9945464385214744</v>
+        <v>0.3846980839838889</v>
       </c>
       <c r="R4">
-        <v>0.9945464385214744</v>
+        <v>3.462282755855</v>
       </c>
       <c r="S4">
-        <v>0.0001452950070286421</v>
+        <v>4.812217112618166E-05</v>
       </c>
       <c r="T4">
-        <v>0.0001452950070286421</v>
+        <v>4.812217112618168E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.3598668860931</v>
+        <v>5.444688333333333</v>
       </c>
       <c r="H5">
-        <v>4.3598668860931</v>
+        <v>16.334065</v>
       </c>
       <c r="I5">
-        <v>0.114869030022329</v>
+        <v>0.1233261750980693</v>
       </c>
       <c r="J5">
-        <v>0.114869030022329</v>
+        <v>0.1233261750980693</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>180.116883612928</v>
+        <v>0.06577766666666666</v>
       </c>
       <c r="N5">
-        <v>180.116883612928</v>
+        <v>0.197333</v>
       </c>
       <c r="O5">
-        <v>0.9987351246284538</v>
+        <v>0.000363263209799156</v>
       </c>
       <c r="P5">
-        <v>0.9987351246284538</v>
+        <v>0.0003632632097991561</v>
       </c>
       <c r="Q5">
-        <v>785.2856364902897</v>
+        <v>0.3581388942938888</v>
       </c>
       <c r="R5">
-        <v>785.2856364902897</v>
+        <v>3.223250048645</v>
       </c>
       <c r="S5">
-        <v>0.1147237350153004</v>
+        <v>4.479986221837741E-05</v>
       </c>
       <c r="T5">
-        <v>0.1147237350153004</v>
+        <v>4.479986221837743E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.11494220632979</v>
+        <v>5.444688333333333</v>
       </c>
       <c r="H6">
-        <v>3.11494220632979</v>
+        <v>16.334065</v>
       </c>
       <c r="I6">
-        <v>0.08206910879734501</v>
+        <v>0.1233261750980693</v>
       </c>
       <c r="J6">
-        <v>0.08206910879734501</v>
+        <v>0.1233261750980693</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.228113945793582</v>
+        <v>0.240756</v>
       </c>
       <c r="N6">
-        <v>0.228113945793582</v>
+        <v>0.722268</v>
       </c>
       <c r="O6">
-        <v>0.001264875371546175</v>
+        <v>0.001329597137910116</v>
       </c>
       <c r="P6">
-        <v>0.001264875371546175</v>
+        <v>0.001329597137910116</v>
       </c>
       <c r="Q6">
-        <v>0.7105617576048544</v>
+        <v>1.31084138438</v>
       </c>
       <c r="R6">
-        <v>0.7105617576048544</v>
+        <v>11.79757245942</v>
       </c>
       <c r="S6">
-        <v>0.0001038071944825052</v>
+        <v>0.0001639741294397948</v>
       </c>
       <c r="T6">
-        <v>0.0001038071944825052</v>
+        <v>0.0001639741294397948</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.11494220632979</v>
+        <v>4.448721333333333</v>
       </c>
       <c r="H7">
-        <v>3.11494220632979</v>
+        <v>13.346164</v>
       </c>
       <c r="I7">
-        <v>0.08206910879734501</v>
+        <v>0.1007667937131112</v>
       </c>
       <c r="J7">
-        <v>0.08206910879734501</v>
+        <v>0.1007667937131112</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>180.116883612928</v>
+        <v>0.3397146666666667</v>
       </c>
       <c r="N7">
-        <v>180.116883612928</v>
+        <v>1.019144</v>
       </c>
       <c r="O7">
-        <v>0.9987351246284538</v>
+        <v>0.001876105469878586</v>
       </c>
       <c r="P7">
-        <v>0.9987351246284538</v>
+        <v>0.001876105469878587</v>
       </c>
       <c r="Q7">
-        <v>561.0536828385</v>
+        <v>1.511295884846222</v>
       </c>
       <c r="R7">
-        <v>561.0536828385</v>
+        <v>13.601662963616</v>
       </c>
       <c r="S7">
-        <v>0.0819653016028625</v>
+        <v>0.0001890491328672951</v>
       </c>
       <c r="T7">
-        <v>0.0819653016028625</v>
+        <v>0.0001890491328672951</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.83459431759958</v>
+        <v>4.448721333333333</v>
       </c>
       <c r="H8">
-        <v>5.83459431759958</v>
+        <v>13.346164</v>
       </c>
       <c r="I8">
-        <v>0.1537235441692668</v>
+        <v>0.1007667937131112</v>
       </c>
       <c r="J8">
-        <v>0.1537235441692668</v>
+        <v>0.1007667937131112</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.228113945793582</v>
+        <v>180.357493</v>
       </c>
       <c r="N8">
-        <v>0.228113945793582</v>
+        <v>541.0724789999999</v>
       </c>
       <c r="O8">
-        <v>0.001264875371546175</v>
+        <v>0.9960408317692755</v>
       </c>
       <c r="P8">
-        <v>0.001264875371546175</v>
+        <v>0.9960408317692757</v>
       </c>
       <c r="Q8">
-        <v>1.330952331892452</v>
+        <v>802.3602267356172</v>
       </c>
       <c r="R8">
-        <v>1.330952331892452</v>
+        <v>7221.242040620555</v>
       </c>
       <c r="S8">
-        <v>0.0001944411250464962</v>
+        <v>0.1003678410247303</v>
       </c>
       <c r="T8">
-        <v>0.0001944411250464962</v>
+        <v>0.1003678410247303</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.83459431759958</v>
+        <v>4.448721333333333</v>
       </c>
       <c r="H9">
-        <v>5.83459431759958</v>
+        <v>13.346164</v>
       </c>
       <c r="I9">
-        <v>0.1537235441692668</v>
+        <v>0.1007667937131112</v>
       </c>
       <c r="J9">
-        <v>0.1537235441692668</v>
+        <v>0.1007667937131112</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>180.116883612928</v>
+        <v>0.07065566666666667</v>
       </c>
       <c r="N9">
-        <v>180.116883612928</v>
+        <v>0.211967</v>
       </c>
       <c r="O9">
-        <v>0.9987351246284538</v>
+        <v>0.000390202413136666</v>
       </c>
       <c r="P9">
-        <v>0.9987351246284538</v>
+        <v>0.0003902024131366661</v>
       </c>
       <c r="Q9">
-        <v>1050.908945631734</v>
+        <v>0.3143273716208889</v>
       </c>
       <c r="R9">
-        <v>1050.908945631734</v>
+        <v>2.828946344588</v>
       </c>
       <c r="S9">
-        <v>0.1535291030442203</v>
+        <v>3.931944607090062E-05</v>
       </c>
       <c r="T9">
-        <v>0.1535291030442203</v>
+        <v>3.931944607090063E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>22.5515116198127</v>
+        <v>4.448721333333333</v>
       </c>
       <c r="H10">
-        <v>22.5515116198127</v>
+        <v>13.346164</v>
       </c>
       <c r="I10">
-        <v>0.5941626964731717</v>
+        <v>0.1007667937131112</v>
       </c>
       <c r="J10">
-        <v>0.5941626964731717</v>
+        <v>0.1007667937131112</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.228113945793582</v>
+        <v>0.06577766666666666</v>
       </c>
       <c r="N10">
-        <v>0.228113945793582</v>
+        <v>0.197333</v>
       </c>
       <c r="O10">
-        <v>0.001264875371546175</v>
+        <v>0.000363263209799156</v>
       </c>
       <c r="P10">
-        <v>0.001264875371546175</v>
+        <v>0.0003632632097991561</v>
       </c>
       <c r="Q10">
-        <v>5.144314299205289</v>
+        <v>0.2926265089568889</v>
       </c>
       <c r="R10">
-        <v>5.144314299205289</v>
+        <v>2.633638580612</v>
       </c>
       <c r="S10">
-        <v>0.0007515417614603802</v>
+        <v>3.660486892539419E-05</v>
       </c>
       <c r="T10">
-        <v>0.0007515417614603802</v>
+        <v>3.66048689253942E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4.448721333333333</v>
+      </c>
+      <c r="H11">
+        <v>13.346164</v>
+      </c>
+      <c r="I11">
+        <v>0.1007667937131112</v>
+      </c>
+      <c r="J11">
+        <v>0.1007667937131112</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.240756</v>
+      </c>
+      <c r="N11">
+        <v>0.722268</v>
+      </c>
+      <c r="O11">
+        <v>0.001329597137910116</v>
+      </c>
+      <c r="P11">
+        <v>0.001329597137910116</v>
+      </c>
+      <c r="Q11">
+        <v>1.071056353328</v>
+      </c>
+      <c r="R11">
+        <v>9.639507179952</v>
+      </c>
+      <c r="S11">
+        <v>0.0001339792405173317</v>
+      </c>
+      <c r="T11">
+        <v>0.0001339792405173317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>3.451216</v>
+      </c>
+      <c r="H12">
+        <v>10.353648</v>
+      </c>
+      <c r="I12">
+        <v>0.07817256795242186</v>
+      </c>
+      <c r="J12">
+        <v>0.07817256795242186</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.3397146666666667</v>
+      </c>
+      <c r="N12">
+        <v>1.019144</v>
+      </c>
+      <c r="O12">
+        <v>0.001876105469878586</v>
+      </c>
+      <c r="P12">
+        <v>0.001876105469878587</v>
+      </c>
+      <c r="Q12">
+        <v>1.172428693034667</v>
+      </c>
+      <c r="R12">
+        <v>10.551858237312</v>
+      </c>
+      <c r="S12">
+        <v>0.0001466599823299941</v>
+      </c>
+      <c r="T12">
+        <v>0.0001466599823299942</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3.451216</v>
+      </c>
+      <c r="H13">
+        <v>10.353648</v>
+      </c>
+      <c r="I13">
+        <v>0.07817256795242186</v>
+      </c>
+      <c r="J13">
+        <v>0.07817256795242186</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>180.357493</v>
+      </c>
+      <c r="N13">
+        <v>541.0724789999999</v>
+      </c>
+      <c r="O13">
+        <v>0.9960408317692755</v>
+      </c>
+      <c r="P13">
+        <v>0.9960408317692757</v>
+      </c>
+      <c r="Q13">
+        <v>622.4526655614879</v>
+      </c>
+      <c r="R13">
+        <v>5602.073990053391</v>
+      </c>
+      <c r="S13">
+        <v>0.07786306960487048</v>
+      </c>
+      <c r="T13">
+        <v>0.07786306960487049</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3.451216</v>
+      </c>
+      <c r="H14">
+        <v>10.353648</v>
+      </c>
+      <c r="I14">
+        <v>0.07817256795242186</v>
+      </c>
+      <c r="J14">
+        <v>0.07817256795242186</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.07065566666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.211967</v>
+      </c>
+      <c r="O14">
+        <v>0.000390202413136666</v>
+      </c>
+      <c r="P14">
+        <v>0.0003902024131366661</v>
+      </c>
+      <c r="Q14">
+        <v>0.2438479672906667</v>
+      </c>
+      <c r="R14">
+        <v>2.194631705616</v>
+      </c>
+      <c r="S14">
+        <v>3.050312465612501E-05</v>
+      </c>
+      <c r="T14">
+        <v>3.050312465612502E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3.451216</v>
+      </c>
+      <c r="H15">
+        <v>10.353648</v>
+      </c>
+      <c r="I15">
+        <v>0.07817256795242186</v>
+      </c>
+      <c r="J15">
+        <v>0.07817256795242186</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.06577766666666666</v>
+      </c>
+      <c r="N15">
+        <v>0.197333</v>
+      </c>
+      <c r="O15">
+        <v>0.000363263209799156</v>
+      </c>
+      <c r="P15">
+        <v>0.0003632632097991561</v>
+      </c>
+      <c r="Q15">
+        <v>0.2270129356426667</v>
+      </c>
+      <c r="R15">
+        <v>2.043116420784</v>
+      </c>
+      <c r="S15">
+        <v>2.839721795263941E-05</v>
+      </c>
+      <c r="T15">
+        <v>2.839721795263941E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.451216</v>
+      </c>
+      <c r="H16">
+        <v>10.353648</v>
+      </c>
+      <c r="I16">
+        <v>0.07817256795242186</v>
+      </c>
+      <c r="J16">
+        <v>0.07817256795242186</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.240756</v>
+      </c>
+      <c r="N16">
+        <v>0.722268</v>
+      </c>
+      <c r="O16">
+        <v>0.001329597137910116</v>
+      </c>
+      <c r="P16">
+        <v>0.001329597137910116</v>
+      </c>
+      <c r="Q16">
+        <v>0.8309009592960001</v>
+      </c>
+      <c r="R16">
+        <v>7.478108633664</v>
+      </c>
+      <c r="S16">
+        <v>0.0001039380226126241</v>
+      </c>
+      <c r="T16">
+        <v>0.0001039380226126242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>6.243621333333333</v>
+      </c>
+      <c r="H17">
+        <v>18.730864</v>
+      </c>
+      <c r="I17">
+        <v>0.1414225921962551</v>
+      </c>
+      <c r="J17">
+        <v>0.1414225921962551</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.3397146666666667</v>
+      </c>
+      <c r="N17">
+        <v>1.019144</v>
+      </c>
+      <c r="O17">
+        <v>0.001876105469878586</v>
+      </c>
+      <c r="P17">
+        <v>0.001876105469878587</v>
+      </c>
+      <c r="Q17">
+        <v>2.121049740046222</v>
+      </c>
+      <c r="R17">
+        <v>19.089447660416</v>
+      </c>
+      <c r="S17">
+        <v>0.0002653236987838029</v>
+      </c>
+      <c r="T17">
+        <v>0.0002653236987838029</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>22.5515116198127</v>
-      </c>
-      <c r="H11">
-        <v>22.5515116198127</v>
-      </c>
-      <c r="I11">
-        <v>0.5941626964731717</v>
-      </c>
-      <c r="J11">
-        <v>0.5941626964731717</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>180.116883612928</v>
-      </c>
-      <c r="N11">
-        <v>180.116883612928</v>
-      </c>
-      <c r="O11">
-        <v>0.9987351246284538</v>
-      </c>
-      <c r="P11">
-        <v>0.9987351246284538</v>
-      </c>
-      <c r="Q11">
-        <v>4061.907993721398</v>
-      </c>
-      <c r="R11">
-        <v>4061.907993721398</v>
-      </c>
-      <c r="S11">
-        <v>0.5934111547117112</v>
-      </c>
-      <c r="T11">
-        <v>0.5934111547117112</v>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>6.243621333333333</v>
+      </c>
+      <c r="H18">
+        <v>18.730864</v>
+      </c>
+      <c r="I18">
+        <v>0.1414225921962551</v>
+      </c>
+      <c r="J18">
+        <v>0.1414225921962551</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>180.357493</v>
+      </c>
+      <c r="N18">
+        <v>541.0724789999999</v>
+      </c>
+      <c r="O18">
+        <v>0.9960408317692755</v>
+      </c>
+      <c r="P18">
+        <v>0.9960408317692757</v>
+      </c>
+      <c r="Q18">
+        <v>1126.083890921317</v>
+      </c>
+      <c r="R18">
+        <v>10134.75501829185</v>
+      </c>
+      <c r="S18">
+        <v>0.140862676362125</v>
+      </c>
+      <c r="T18">
+        <v>0.140862676362125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>6.243621333333333</v>
+      </c>
+      <c r="H19">
+        <v>18.730864</v>
+      </c>
+      <c r="I19">
+        <v>0.1414225921962551</v>
+      </c>
+      <c r="J19">
+        <v>0.1414225921962551</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.07065566666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.211967</v>
+      </c>
+      <c r="O19">
+        <v>0.000390202413136666</v>
+      </c>
+      <c r="P19">
+        <v>0.0003902024131366661</v>
+      </c>
+      <c r="Q19">
+        <v>0.4411472277208889</v>
+      </c>
+      <c r="R19">
+        <v>3.970325049488</v>
+      </c>
+      <c r="S19">
+        <v>5.518343674702138E-05</v>
+      </c>
+      <c r="T19">
+        <v>5.518343674702139E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>6.243621333333333</v>
+      </c>
+      <c r="H20">
+        <v>18.730864</v>
+      </c>
+      <c r="I20">
+        <v>0.1414225921962551</v>
+      </c>
+      <c r="J20">
+        <v>0.1414225921962551</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.06577766666666666</v>
+      </c>
+      <c r="N20">
+        <v>0.197333</v>
+      </c>
+      <c r="O20">
+        <v>0.000363263209799156</v>
+      </c>
+      <c r="P20">
+        <v>0.0003632632097991561</v>
+      </c>
+      <c r="Q20">
+        <v>0.4106908428568889</v>
+      </c>
+      <c r="R20">
+        <v>3.696217585712</v>
+      </c>
+      <c r="S20">
+        <v>5.137362477932871E-05</v>
+      </c>
+      <c r="T20">
+        <v>5.137362477932872E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>6.243621333333333</v>
+      </c>
+      <c r="H21">
+        <v>18.730864</v>
+      </c>
+      <c r="I21">
+        <v>0.1414225921962551</v>
+      </c>
+      <c r="J21">
+        <v>0.1414225921962551</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.240756</v>
+      </c>
+      <c r="N21">
+        <v>0.722268</v>
+      </c>
+      <c r="O21">
+        <v>0.001329597137910116</v>
+      </c>
+      <c r="P21">
+        <v>0.001329597137910116</v>
+      </c>
+      <c r="Q21">
+        <v>1.503189297728</v>
+      </c>
+      <c r="R21">
+        <v>13.528703679552</v>
+      </c>
+      <c r="S21">
+        <v>0.0001880350738199703</v>
+      </c>
+      <c r="T21">
+        <v>0.0001880350738199703</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.5576573333333333</v>
+      </c>
+      <c r="H22">
+        <v>1.672972</v>
+      </c>
+      <c r="I22">
+        <v>0.01263134668596992</v>
+      </c>
+      <c r="J22">
+        <v>0.01263134668596992</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.3397146666666667</v>
+      </c>
+      <c r="N22">
+        <v>1.019144</v>
+      </c>
+      <c r="O22">
+        <v>0.001876105469878586</v>
+      </c>
+      <c r="P22">
+        <v>0.001876105469878587</v>
+      </c>
+      <c r="Q22">
+        <v>0.1894443751075555</v>
+      </c>
+      <c r="R22">
+        <v>1.704999375968</v>
+      </c>
+      <c r="S22">
+        <v>2.369773860948093E-05</v>
+      </c>
+      <c r="T22">
+        <v>2.369773860948093E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.5576573333333333</v>
+      </c>
+      <c r="H23">
+        <v>1.672972</v>
+      </c>
+      <c r="I23">
+        <v>0.01263134668596992</v>
+      </c>
+      <c r="J23">
+        <v>0.01263134668596992</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>180.357493</v>
+      </c>
+      <c r="N23">
+        <v>541.0724789999999</v>
+      </c>
+      <c r="O23">
+        <v>0.9960408317692755</v>
+      </c>
+      <c r="P23">
+        <v>0.9960408317692757</v>
+      </c>
+      <c r="Q23">
+        <v>100.5776785930653</v>
+      </c>
+      <c r="R23">
+        <v>905.1991073375879</v>
+      </c>
+      <c r="S23">
+        <v>0.01258133705945956</v>
+      </c>
+      <c r="T23">
+        <v>0.01258133705945957</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.5576573333333333</v>
+      </c>
+      <c r="H24">
+        <v>1.672972</v>
+      </c>
+      <c r="I24">
+        <v>0.01263134668596992</v>
+      </c>
+      <c r="J24">
+        <v>0.01263134668596992</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.07065566666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.211967</v>
+      </c>
+      <c r="O24">
+        <v>0.000390202413136666</v>
+      </c>
+      <c r="P24">
+        <v>0.0003902024131366661</v>
+      </c>
+      <c r="Q24">
+        <v>0.03940165065822222</v>
+      </c>
+      <c r="R24">
+        <v>0.354614855924</v>
+      </c>
+      <c r="S24">
+        <v>4.928781958031292E-06</v>
+      </c>
+      <c r="T24">
+        <v>4.928781958031294E-06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.5576573333333333</v>
+      </c>
+      <c r="H25">
+        <v>1.672972</v>
+      </c>
+      <c r="I25">
+        <v>0.01263134668596992</v>
+      </c>
+      <c r="J25">
+        <v>0.01263134668596992</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.06577766666666666</v>
+      </c>
+      <c r="N25">
+        <v>0.197333</v>
+      </c>
+      <c r="O25">
+        <v>0.000363263209799156</v>
+      </c>
+      <c r="P25">
+        <v>0.0003632632097991561</v>
+      </c>
+      <c r="Q25">
+        <v>0.03668139818622222</v>
+      </c>
+      <c r="R25">
+        <v>0.330132583676</v>
+      </c>
+      <c r="S25">
+        <v>4.588503541231366E-06</v>
+      </c>
+      <c r="T25">
+        <v>4.588503541231367E-06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.5576573333333333</v>
+      </c>
+      <c r="H26">
+        <v>1.672972</v>
+      </c>
+      <c r="I26">
+        <v>0.01263134668596992</v>
+      </c>
+      <c r="J26">
+        <v>0.01263134668596992</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.240756</v>
+      </c>
+      <c r="N26">
+        <v>0.722268</v>
+      </c>
+      <c r="O26">
+        <v>0.001329597137910116</v>
+      </c>
+      <c r="P26">
+        <v>0.001329597137910116</v>
+      </c>
+      <c r="Q26">
+        <v>0.134259348944</v>
+      </c>
+      <c r="R26">
+        <v>1.208334140496</v>
+      </c>
+      <c r="S26">
+        <v>1.679460240161603E-05</v>
+      </c>
+      <c r="T26">
+        <v>1.679460240161604E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>24.00277966666667</v>
+      </c>
+      <c r="H27">
+        <v>72.00833900000001</v>
+      </c>
+      <c r="I27">
+        <v>0.5436805243541726</v>
+      </c>
+      <c r="J27">
+        <v>0.5436805243541726</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.3397146666666667</v>
+      </c>
+      <c r="N27">
+        <v>1.019144</v>
+      </c>
+      <c r="O27">
+        <v>0.001876105469878586</v>
+      </c>
+      <c r="P27">
+        <v>0.001876105469878587</v>
+      </c>
+      <c r="Q27">
+        <v>8.154096293535112</v>
+      </c>
+      <c r="R27">
+        <v>73.38686664181601</v>
+      </c>
+      <c r="S27">
+        <v>0.001020002005607321</v>
+      </c>
+      <c r="T27">
+        <v>0.001020002005607321</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>24.00277966666667</v>
+      </c>
+      <c r="H28">
+        <v>72.00833900000001</v>
+      </c>
+      <c r="I28">
+        <v>0.5436805243541726</v>
+      </c>
+      <c r="J28">
+        <v>0.5436805243541726</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>180.357493</v>
+      </c>
+      <c r="N28">
+        <v>541.0724789999999</v>
+      </c>
+      <c r="O28">
+        <v>0.9960408317692755</v>
+      </c>
+      <c r="P28">
+        <v>0.9960408317692757</v>
+      </c>
+      <c r="Q28">
+        <v>4329.081165711375</v>
+      </c>
+      <c r="R28">
+        <v>38961.73049140238</v>
+      </c>
+      <c r="S28">
+        <v>0.5415280016944859</v>
+      </c>
+      <c r="T28">
+        <v>0.541528001694486</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>24.00277966666667</v>
+      </c>
+      <c r="H29">
+        <v>72.00833900000001</v>
+      </c>
+      <c r="I29">
+        <v>0.5436805243541726</v>
+      </c>
+      <c r="J29">
+        <v>0.5436805243541726</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.07065566666666667</v>
+      </c>
+      <c r="N29">
+        <v>0.211967</v>
+      </c>
+      <c r="O29">
+        <v>0.000390202413136666</v>
+      </c>
+      <c r="P29">
+        <v>0.0003902024131366661</v>
+      </c>
+      <c r="Q29">
+        <v>1.695932399201445</v>
+      </c>
+      <c r="R29">
+        <v>15.263391592813</v>
+      </c>
+      <c r="S29">
+        <v>0.000212145452578406</v>
+      </c>
+      <c r="T29">
+        <v>0.0002121454525784061</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>24.00277966666667</v>
+      </c>
+      <c r="H30">
+        <v>72.00833900000001</v>
+      </c>
+      <c r="I30">
+        <v>0.5436805243541726</v>
+      </c>
+      <c r="J30">
+        <v>0.5436805243541726</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.06577766666666666</v>
+      </c>
+      <c r="N30">
+        <v>0.197333</v>
+      </c>
+      <c r="O30">
+        <v>0.000363263209799156</v>
+      </c>
+      <c r="P30">
+        <v>0.0003632632097991561</v>
+      </c>
+      <c r="Q30">
+        <v>1.578846839987444</v>
+      </c>
+      <c r="R30">
+        <v>14.209621559887</v>
+      </c>
+      <c r="S30">
+        <v>0.000197499132382185</v>
+      </c>
+      <c r="T30">
+        <v>0.000197499132382185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>24.00277966666667</v>
+      </c>
+      <c r="H31">
+        <v>72.00833900000001</v>
+      </c>
+      <c r="I31">
+        <v>0.5436805243541726</v>
+      </c>
+      <c r="J31">
+        <v>0.5436805243541726</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M31">
+        <v>0.240756</v>
+      </c>
+      <c r="N31">
+        <v>0.722268</v>
+      </c>
+      <c r="O31">
+        <v>0.001329597137910116</v>
+      </c>
+      <c r="P31">
+        <v>0.001329597137910116</v>
+      </c>
+      <c r="Q31">
+        <v>5.778813221428001</v>
+      </c>
+      <c r="R31">
+        <v>52.00931899285201</v>
+      </c>
+      <c r="S31">
+        <v>0.0007228760691187789</v>
+      </c>
+      <c r="T31">
+        <v>0.000722876069118779</v>
       </c>
     </row>
   </sheetData>
